--- a/tests/dataset_index.xlsx
+++ b/tests/dataset_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Python\ehd_exsitu\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Python\ehd_exsitu\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966634EB-63FD-4E18-8DAD-60879CECE89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC51035-0677-4CE0-8AE2-84BCAD22D0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/dataset_index.xlsx
+++ b/tests/dataset_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Python\ehd_exsitu\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC51035-0677-4CE0-8AE2-84BCAD22D0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6B087D-0BCE-4B9B-A15F-C3F66EDBCD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Path</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>harmonics</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>V Thresh [V] @ .5s</t>
+  </si>
+  <si>
+    <t>W thresh [s] @ 1.5 Vt</t>
   </si>
 </sst>
 </file>
@@ -382,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +404,7 @@
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +423,17 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,6 +451,9 @@
       </c>
       <c r="F2">
         <v>570</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
